--- a/PA.xlsx
+++ b/PA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
@@ -32,12 +32,12 @@
     <t>10:0</t>
   </si>
   <si>
+    <t>U3-110</t>
+  </si>
+  <si>
     <t>TYPE_COURS</t>
   </si>
   <si>
-    <t>jeudi</t>
-  </si>
-  <si>
     <t>7:45</t>
   </si>
   <si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>13:30</t>
+  </si>
+  <si>
+    <t>U3-Amphi</t>
   </si>
   <si>
     <t>TYPE_CONTROLE</t>
@@ -97,7 +100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -135,10 +138,12 @@
       <c r="E3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F3" s="0"/>
+      <c r="F3" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G3" s="0"/>
       <c r="H3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" s="0"/>
     </row>
@@ -147,15 +152,15 @@
         <v>0</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="1">
-        <v>45918.0</v>
+        <v>45926.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -174,90 +179,80 @@
       <c r="E6" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F6" s="0"/>
+      <c r="F6" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G6" s="0"/>
       <c r="H6" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="G7" s="0"/>
+      <c r="H7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I7" s="0"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B7" t="n" s="0">
-        <v>39.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n" s="1">
-        <v>45926.0</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>1</v>
+      <c r="B8" t="n" s="0">
+        <v>41.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>2</v>
+      <c r="A9" t="n" s="1">
+        <v>45936.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="E9" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
-      <c r="H9" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="I9" s="0"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B10" t="n" s="0">
-        <v>41.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n" s="1">
-        <v>45936.0</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B12" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s" s="0">
+      <c r="B10" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="E12" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-      <c r="H12" t="s" s="0">
+      <c r="E10" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F10" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="I12" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="I10" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/PA.xlsx
+++ b/PA.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
-    <t>samedi</t>
+    <t>mercredi</t>
   </si>
   <si>
     <t>Télécoms (KINX6AC1) /CC</t>
@@ -92,7 +92,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>45003.0</v>
+        <v>46099.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
